--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_R210-ActeSpe" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R210-ActeSpe 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="2136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="2162">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.4</t>
+    <t>urn:oid:1.2.250.1.213.3.4.4</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -742,7 +741,7 @@
     <t>0182</t>
   </si>
   <si>
-    <t>Education thérapeutique - école de l'asthme</t>
+    <t>Education thérapeutique labellisée du patient asthmatique (école de l'asthme)</t>
   </si>
   <si>
     <t>0183</t>
@@ -1744,7 +1743,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>Vaccination internationale et conseil aux voyageurs (fièvre jaune, encéphalite,...)</t>
+    <t>Vaccinations internationales et conseils aux voyageurs (fièvre jaune, encéphalite…)</t>
   </si>
   <si>
     <t>0503</t>
@@ -6229,6 +6228,270 @@
     <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) en appartements en diffus</t>
   </si>
   <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>Accouchement à domicile</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>Accouchement en maison de naissance</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>Accouchement en plateau technique</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>Bilan échographique pré fistule artérioveineuse (FAV) et suivi des abords vasculaires</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>Diagnostic et prise en charge médicale de l'insuffisance veineuse pelvienne</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>Diagnostic et prise en charge de l'insuffisance veineuse des membres inférieurs (dont varices)</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>Echo-doppler du greffon rénal</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>Echo-doppler des vaisseaux viscéraux</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>Pharmaco-écho-doppler pénien</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>Prise en charge et coordination de plaies et cicatrisations complexes</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>Evaluation et prise en charge d'analgésie intrathécale</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Thérapie individuelle ou de groupe dans le suivi de deuil</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>Centre de recours pour chirurgie oncologique complexe</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du foie</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de l'estomac</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du rectum</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers thoraciques envahissants le rachis</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du coeur</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de la paroi thoracique</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers urologiques avec atteinte vasculaire</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers urologiques avec atteinte lombo-aortique</t>
+  </si>
+  <si>
+    <t>1377</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers gynécologiques avec atteinte péritonéale</t>
+  </si>
+  <si>
+    <t>1378</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de l'ovaire</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>Prise en charge de la douleur liée à l'endométriose</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'infertilité liée à l'endométriose</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>Diagnostic de l'endométriose complexe</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 1</t>
+  </si>
+  <si>
+    <t>1383</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 2</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 3</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>Evaluation psychiatrique pré-conceptionnelle</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>Suivi psychiatrique de la femme enceinte</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>Conseil en anti infectieux</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>Gestion des complications de l'infection par le VIH</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>Initiation et suivi thérapeutique des hépatites virales</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>Initiation, réévaluation et modification des anti rétroviraux</t>
+  </si>
+  <si>
+    <t>1391</t>
+  </si>
+  <si>
+    <t>Maladies vectorielles à tique (Lyme…)</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>Prise en charge clinique des parasitoses</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>Prise en charge des Infections chez les Immunodéprimés (ID)</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>Prise en charge diagnostique et thérapeutique des infections post-opératoires ou sur prothèses et/ou dispositifs implantables</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>Bilan diagnostic psychiatrique</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'anorexie précoce prépubère</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'hyperphagie boulimique</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>Admission directe non programmée - personnes âgées (PA)</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Unité de réanimation pédiatrique de recours</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -6236,192 +6499,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R210-ActeSpecifique/FHIR/TRE-R210-ActeSpecifique</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>Accouchement à domicile</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>Accouchement en maison de naissance</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>Accouchement en plateau technique</t>
-  </si>
-  <si>
-    <t>1359</t>
-  </si>
-  <si>
-    <t>Bilan échographique pré fistule artérioveineuse (FAV) et suivi des abords vasculaires</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>Diagnostic et prise en charge médicale de l'insuffisance veineuse pelvienne</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>Diagnostic et prise en charge de l'insuffisance veineuse des membres inférieurs (dont varices)</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>Echo-doppler du greffon rénal</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>Echo-doppler des vaisseaux viscéraux</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>Pharmaco-écho-doppler pénien</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>Prise en charge et coordination de plaies et cicatrisations complexes</t>
-  </si>
-  <si>
-    <t>1366</t>
-  </si>
-  <si>
-    <t>Evaluation et prise en charge d'analgésie intrathécale</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>Thérapie individuelle ou de groupe dans le suivi de deuil</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>Centre de recours pour chirurgie oncologique complexe</t>
-  </si>
-  <si>
-    <t>1369</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du foie</t>
-  </si>
-  <si>
-    <t>1370</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de l'estomac</t>
-  </si>
-  <si>
-    <t>1371</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du rectum</t>
-  </si>
-  <si>
-    <t>1372</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers thoraciques envahissants le rachis</t>
-  </si>
-  <si>
-    <t>1373</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du coeur</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de la paroi thoracique</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers urologiques avec atteinte vasculaire</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers urologiques avec atteinte lombo-aortique</t>
-  </si>
-  <si>
-    <t>1377</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers gynécologiques avec atteinte péritonéale</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de l'ovaire</t>
-  </si>
-  <si>
-    <t>1379</t>
-  </si>
-  <si>
-    <t>Prise en charge de la douleur liée à l'endométriose</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>Prise en charge de l'infertilité liée à l'endométriose</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>Diagnostic complexe de l'endométriose</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 1</t>
-  </si>
-  <si>
-    <t>1383</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 2</t>
-  </si>
-  <si>
-    <t>1384</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 3</t>
-  </si>
-  <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>Evaluation psychiatrique pré-conceptionnelle</t>
-  </si>
-  <si>
-    <t>1386</t>
-  </si>
-  <si>
-    <t>Suivi psychiatrique de la femme enceinte</t>
   </si>
 </sst>
 </file>
@@ -6684,7 +6761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1025"/>
+  <dimension ref="A1:B1069"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14883,304 +14960,367 @@
         <v>2071</v>
       </c>
       <c r="B1024" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="s" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1025" t="s" s="2">
-        <v>2073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>2074</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s" s="2">
         <v>2075</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B1026" t="s" s="2">
         <v>2076</v>
       </c>
-      <c r="B3" t="s" s="2">
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s" s="2">
         <v>2077</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B1027" t="s" s="2">
         <v>2078</v>
       </c>
-      <c r="B4" t="s" s="2">
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s" s="2">
         <v>2079</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B1028" t="s" s="2">
         <v>2080</v>
       </c>
-      <c r="B5" t="s" s="2">
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s" s="2">
         <v>2081</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="B1029" t="s" s="2">
         <v>2082</v>
       </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s" s="2">
         <v>2083</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="B1030" t="s" s="2">
         <v>2084</v>
       </c>
-      <c r="B7" t="s" s="2">
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s" s="2">
         <v>2085</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="B1031" t="s" s="2">
         <v>2086</v>
       </c>
-      <c r="B8" t="s" s="2">
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s" s="2">
         <v>2087</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="B1032" t="s" s="2">
         <v>2088</v>
       </c>
-      <c r="B9" t="s" s="2">
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s" s="2">
         <v>2089</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="B1033" t="s" s="2">
         <v>2090</v>
       </c>
-      <c r="B10" t="s" s="2">
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s" s="2">
         <v>2091</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B1034" t="s" s="2">
         <v>2092</v>
       </c>
-      <c r="B11" t="s" s="2">
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s" s="2">
         <v>2093</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="B1035" t="s" s="2">
         <v>2094</v>
       </c>
-      <c r="B12" t="s" s="2">
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s" s="2">
         <v>2095</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="B1036" t="s" s="2">
         <v>2096</v>
       </c>
-      <c r="B13" t="s" s="2">
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s" s="2">
         <v>2097</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="B1037" t="s" s="2">
         <v>2098</v>
       </c>
-      <c r="B14" t="s" s="2">
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s" s="2">
         <v>2099</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="B1038" t="s" s="2">
         <v>2100</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s" s="2">
         <v>2101</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B1039" t="s" s="2">
         <v>2102</v>
       </c>
-      <c r="B16" t="s" s="2">
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s" s="2">
         <v>2103</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="B1040" t="s" s="2">
         <v>2104</v>
       </c>
-      <c r="B17" t="s" s="2">
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s" s="2">
         <v>2105</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="B1041" t="s" s="2">
         <v>2106</v>
       </c>
-      <c r="B18" t="s" s="2">
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s" s="2">
         <v>2107</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="B1042" t="s" s="2">
         <v>2108</v>
       </c>
-      <c r="B19" t="s" s="2">
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s" s="2">
         <v>2109</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="B1043" t="s" s="2">
         <v>2110</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s" s="2">
         <v>2111</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="B1044" t="s" s="2">
         <v>2112</v>
       </c>
-      <c r="B21" t="s" s="2">
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s" s="2">
         <v>2113</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="B1045" t="s" s="2">
         <v>2114</v>
       </c>
-      <c r="B22" t="s" s="2">
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s" s="2">
         <v>2115</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="B1046" t="s" s="2">
         <v>2116</v>
       </c>
-      <c r="B23" t="s" s="2">
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s" s="2">
         <v>2117</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="B1047" t="s" s="2">
         <v>2118</v>
       </c>
-      <c r="B24" t="s" s="2">
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s" s="2">
         <v>2119</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="B1048" t="s" s="2">
         <v>2120</v>
       </c>
-      <c r="B25" t="s" s="2">
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s" s="2">
         <v>2121</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="B1049" t="s" s="2">
         <v>2122</v>
       </c>
-      <c r="B26" t="s" s="2">
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s" s="2">
         <v>2123</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="B1050" t="s" s="2">
         <v>2124</v>
       </c>
-      <c r="B27" t="s" s="2">
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s" s="2">
         <v>2125</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="B1051" t="s" s="2">
         <v>2126</v>
       </c>
-      <c r="B28" t="s" s="2">
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s" s="2">
         <v>2127</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="B1052" t="s" s="2">
         <v>2128</v>
       </c>
-      <c r="B29" t="s" s="2">
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s" s="2">
         <v>2129</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="B1053" t="s" s="2">
         <v>2130</v>
       </c>
-      <c r="B30" t="s" s="2">
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s" s="2">
         <v>2131</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="B1054" t="s" s="2">
         <v>2132</v>
       </c>
-      <c r="B31" t="s" s="2">
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s" s="2">
         <v>2133</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="B1055" t="s" s="2">
         <v>2134</v>
       </c>
-      <c r="B32" t="s" s="2">
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s" s="2">
         <v>2135</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>2071</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>2072</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>2073</v>
+      <c r="B1056" t="s" s="2">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s" s="2">
+        <v>2137</v>
+      </c>
+      <c r="B1057" t="s" s="2">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s" s="2">
+        <v>2139</v>
+      </c>
+      <c r="B1058" t="s" s="2">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s" s="2">
+        <v>2141</v>
+      </c>
+      <c r="B1059" t="s" s="2">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s" s="2">
+        <v>2143</v>
+      </c>
+      <c r="B1060" t="s" s="2">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s" s="2">
+        <v>2145</v>
+      </c>
+      <c r="B1061" t="s" s="2">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s" s="2">
+        <v>2147</v>
+      </c>
+      <c r="B1062" t="s" s="2">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s" s="2">
+        <v>2149</v>
+      </c>
+      <c r="B1063" t="s" s="2">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s" s="2">
+        <v>2151</v>
+      </c>
+      <c r="B1064" t="s" s="2">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s" s="2">
+        <v>2153</v>
+      </c>
+      <c r="B1065" t="s" s="2">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s" s="2">
+        <v>2155</v>
+      </c>
+      <c r="B1066" t="s" s="2">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s" s="2">
+        <v>2157</v>
+      </c>
+      <c r="B1067" t="s" s="2">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s" s="2">
+        <v>2159</v>
+      </c>
+      <c r="B1068" t="s" s="2">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s" s="2">
+        <v>2160</v>
+      </c>
+      <c r="B1069" t="s" s="2">
+        <v>2161</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="2210">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-05-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,12 +270,6 @@
     <t>Chimio-embolisation</t>
   </si>
   <si>
-    <t>0046</t>
-  </si>
-  <si>
-    <t>Chimiothérapies des hémopathies malignes</t>
-  </si>
-  <si>
     <t>0047</t>
   </si>
   <si>
@@ -501,7 +495,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t>Chirurgie du thymus</t>
+    <t>Chirurgie du thymus et des tumeurs du mediastin</t>
   </si>
   <si>
     <t>0104</t>
@@ -570,12 +564,6 @@
     <t>Cinétique lactique d'effort</t>
   </si>
   <si>
-    <t>0131</t>
-  </si>
-  <si>
-    <t>Circulation extracorporelle (CEC) pour assistance circulatoire-respiratoire (ECMO)</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
@@ -3090,12 +3078,6 @@
     <t>Accompagnement administratif</t>
   </si>
   <si>
-    <t>0784</t>
-  </si>
-  <si>
-    <t>Entretien du logement (ménage, petit bricolage)</t>
-  </si>
-  <si>
     <t>0785</t>
   </si>
   <si>
@@ -3117,7 +3099,7 @@
     <t>0788</t>
   </si>
   <si>
-    <t>Conduite du véhicule de la personne</t>
+    <t>Transport accompagné véhiculé</t>
   </si>
   <si>
     <t>0789</t>
@@ -4539,7 +4521,7 @@
     <t>1068</t>
   </si>
   <si>
-    <t>Réglage de stimulateur Maladie de Parkinson</t>
+    <t>Réglage de stimulateur cérébral profond (dont Maladie de Parkinson)</t>
   </si>
   <si>
     <t>1069</t>
@@ -4731,7 +4713,7 @@
     <t>1100</t>
   </si>
   <si>
-    <t>Appareillage des amputes</t>
+    <t>Appareillage des amputés</t>
   </si>
   <si>
     <t>1101</t>
@@ -5811,7 +5793,7 @@
     <t>1282</t>
   </si>
   <si>
-    <t>Programme d'ETP labellisée - Diabète</t>
+    <t>Programme d'ETP labellisée - Diabète et pathologies endocrines</t>
   </si>
   <si>
     <t>1283</t>
@@ -6081,7 +6063,7 @@
     <t>1329</t>
   </si>
   <si>
-    <t>Prise en charge nutritionnelle spécialisée des pathologies digestive</t>
+    <t>Prise en charge nutritionnelle spécialisée des pathologies digestives</t>
   </si>
   <si>
     <t>1330</t>
@@ -6387,19 +6369,19 @@
     <t>1382</t>
   </si>
   <si>
-    <t>Filière endométriose - niveau 1</t>
+    <t xml:space="preserve">Filière endométriose - Premier niveau de recours </t>
   </si>
   <si>
     <t>1383</t>
   </si>
   <si>
-    <t>Filière endométriose - niveau 2</t>
+    <t xml:space="preserve">Filière endométriose - Deuxième niveau de recours </t>
   </si>
   <si>
     <t>1384</t>
   </si>
   <si>
-    <t>Filière endométriose - niveau 3</t>
+    <t>Filière endométriose - Troisième niveau de recours</t>
   </si>
   <si>
     <t>1385</t>
@@ -6490,6 +6472,168 @@
   </si>
   <si>
     <t>Unité de réanimation pédiatrique de recours</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>Accueil et prise en charge du polytraumatisé sévère</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>Algologie périopératoire</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>Anesthésie et médecine périopératoire des enfants de moins d'un an</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>Anesthésie et médecine périopératoire du nouveau-né (moins d'un mois)</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>Assistance circulatoire extracorporelle par ECMO</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>Assistance respiratoire extracorporelle par ECMO</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>Hypnose périopératoire</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>Bilan des troubles psychotraumatiques répétés (dont Troubles Stress Post-Traumatique)</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>Bilan des troubles psychotraumatiques uniques (dont Troubles Stress Post-Traumatique)</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>Centre labellisé Covid-Long</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>Chirurgie carcinologique de l'oesophage</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>Chirurgie des déformations thoraciques (pectum excavatum)</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>Chirurgie du syndrome du défilé thoraco brachial</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>Chirurgie fonctionnelle de l'oesophage</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>Entretien du logement (petit bricolage)</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>Entretien du logement (petit jardinage)</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>Implantation des stimulateurs diaphragmatiques</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>Initiation des pompes externes à insuline</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>Mesure continue du glucose (holter glycémique)</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>Pathologie du métabolisme phosphocalcique</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>Pontage coronarien à coeur battant</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>Prise en charge de la douleur liée à une maladie cancéreuse</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>Récupération améliorée après chirurgie (RAAC) orthopédique</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>Récupération améliorée après chirurgie (RAAC) digestive</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>Récupération améliorée après chirurgie (RAAC) gynécologique</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>Suivi des pompes externes à insuline</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>Traitement du psychotraumatisme</t>
   </si>
   <si>
     <t/>
@@ -6761,7 +6905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1069"/>
+  <dimension ref="A1:B1093"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15312,15 +15456,207 @@
         <v>2159</v>
       </c>
       <c r="B1068" t="s" s="2">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="s" s="2">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B1069" t="s" s="2">
-        <v>2161</v>
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s" s="2">
+        <v>2163</v>
+      </c>
+      <c r="B1070" t="s" s="2">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s" s="2">
+        <v>2165</v>
+      </c>
+      <c r="B1071" t="s" s="2">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s" s="2">
+        <v>2167</v>
+      </c>
+      <c r="B1072" t="s" s="2">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s" s="2">
+        <v>2169</v>
+      </c>
+      <c r="B1073" t="s" s="2">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s" s="2">
+        <v>2171</v>
+      </c>
+      <c r="B1074" t="s" s="2">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s" s="2">
+        <v>2173</v>
+      </c>
+      <c r="B1075" t="s" s="2">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s" s="2">
+        <v>2175</v>
+      </c>
+      <c r="B1076" t="s" s="2">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s" s="2">
+        <v>2177</v>
+      </c>
+      <c r="B1077" t="s" s="2">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s" s="2">
+        <v>2179</v>
+      </c>
+      <c r="B1078" t="s" s="2">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s" s="2">
+        <v>2181</v>
+      </c>
+      <c r="B1079" t="s" s="2">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s" s="2">
+        <v>2183</v>
+      </c>
+      <c r="B1080" t="s" s="2">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s" s="2">
+        <v>2185</v>
+      </c>
+      <c r="B1081" t="s" s="2">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s" s="2">
+        <v>2187</v>
+      </c>
+      <c r="B1082" t="s" s="2">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s" s="2">
+        <v>2189</v>
+      </c>
+      <c r="B1083" t="s" s="2">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s" s="2">
+        <v>2191</v>
+      </c>
+      <c r="B1084" t="s" s="2">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s" s="2">
+        <v>2193</v>
+      </c>
+      <c r="B1085" t="s" s="2">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s" s="2">
+        <v>2195</v>
+      </c>
+      <c r="B1086" t="s" s="2">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s" s="2">
+        <v>2197</v>
+      </c>
+      <c r="B1087" t="s" s="2">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s" s="2">
+        <v>2199</v>
+      </c>
+      <c r="B1088" t="s" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B1089" t="s" s="2">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B1090" t="s" s="2">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B1091" t="s" s="2">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B1092" t="s" s="2">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B1093" t="s" s="2">
+        <v>2209</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="2277">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3039,7 +3039,7 @@
     <t>0776</t>
   </si>
   <si>
-    <t>Accompagnement aux pratiques numériques</t>
+    <t>Accompagnement aux pratiques numériques et assistance informatique</t>
   </si>
   <si>
     <t>0777</t>
@@ -6207,13 +6207,13 @@
     <t>1354</t>
   </si>
   <si>
-    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) en hébergement collectif</t>
+    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) partagé</t>
   </si>
   <si>
     <t>1355</t>
   </si>
   <si>
-    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) en appartements en diffus</t>
+    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) individuel</t>
   </si>
   <si>
     <t>1356</t>
@@ -6375,13 +6375,13 @@
     <t>1382</t>
   </si>
   <si>
-    <t xml:space="preserve">Filière endométriose - Premier niveau de recours </t>
+    <t>Filière endométriose - Premier niveau de recours</t>
   </si>
   <si>
     <t>1383</t>
   </si>
   <si>
-    <t xml:space="preserve">Filière endométriose - Deuxième niveau de recours </t>
+    <t>Filière endométriose - Deuxième niveau de recours</t>
   </si>
   <si>
     <t>1384</t>
@@ -6640,6 +6640,204 @@
   </si>
   <si>
     <t>Traitement du psychotraumatisme</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>Recherche d'ADN foetal libre</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de recours labellisé</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de proximité labellisé</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>Accompagnement à l'éducation de l'enfant sans violence éducative ordinaire (VEO)</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>Accompagnement d'un patient pour téléconsultation médicale</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>Appui à l'accueil inclusif (référent)</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>Evaluation infirmière gériatrique multidimensionnelle</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>Guidance parentale (psychoéducation)</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>Index de pression systolique (IPS)</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>Rédaction de certificat de décès</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>Réalisation de "Mon bilan prévention"</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière de récupération améliorée après chirurgie (RAAC)</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des douleurs chroniques</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des maladies psychiatriques</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des pathologies cardiaques</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des pathologies respiratoires</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des soins palliatifs</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des troubles vésico-sphinctériens (TVS)</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière du diabète</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>Référent santé et accueil inclusif des établissements d'accueil du jeune enfant</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>Prescription de vaccination</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>Santé environnementale</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>Soins infirmiers de dialyse péritonéale</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>Accompagnement à la transition, au changement d'environnement, au deuil</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>Soins infirmiers d'hémodialyse</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>Suivi, repérage précoce et accompagnement du développement psychomoteur, des troubles de comportement et des Troubles Neuro Développementaux</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi standardisé des commotions cérébrales</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>Surveillance et administration de traitement hémophilique</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>Surveillance infirmière et remplissage de pompe à morphine</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>Visite à domicile infirmière puéricultrice post-natale</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>Exploration vasculaire d'effort maximum chez le sportif</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>Laximétrie dynamique automatisée du genou (LDA)</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>Pressothérapie</t>
   </si>
   <si>
     <t>System URI</t>
@@ -6916,7 +7114,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15656,18 +15854,282 @@
     </row>
     <row r="1092">
       <c r="A1092" t="s" s="2">
-        <v>21</v>
+        <v>2209</v>
       </c>
       <c r="B1092" t="s" s="2">
-        <v>21</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="s" s="2">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="B1093" t="s" s="2">
-        <v>2210</v>
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s" s="2">
+        <v>2213</v>
+      </c>
+      <c r="B1094" t="s" s="2">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s" s="2">
+        <v>2215</v>
+      </c>
+      <c r="B1095" t="s" s="2">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s" s="2">
+        <v>2217</v>
+      </c>
+      <c r="B1096" t="s" s="2">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s" s="2">
+        <v>2219</v>
+      </c>
+      <c r="B1097" t="s" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s" s="2">
+        <v>2221</v>
+      </c>
+      <c r="B1098" t="s" s="2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s" s="2">
+        <v>2223</v>
+      </c>
+      <c r="B1099" t="s" s="2">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s" s="2">
+        <v>2225</v>
+      </c>
+      <c r="B1100" t="s" s="2">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s" s="2">
+        <v>2227</v>
+      </c>
+      <c r="B1101" t="s" s="2">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s" s="2">
+        <v>2229</v>
+      </c>
+      <c r="B1102" t="s" s="2">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s" s="2">
+        <v>2231</v>
+      </c>
+      <c r="B1103" t="s" s="2">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s" s="2">
+        <v>2233</v>
+      </c>
+      <c r="B1104" t="s" s="2">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s" s="2">
+        <v>2235</v>
+      </c>
+      <c r="B1105" t="s" s="2">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s" s="2">
+        <v>2237</v>
+      </c>
+      <c r="B1106" t="s" s="2">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s" s="2">
+        <v>2239</v>
+      </c>
+      <c r="B1107" t="s" s="2">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s" s="2">
+        <v>2241</v>
+      </c>
+      <c r="B1108" t="s" s="2">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s" s="2">
+        <v>2243</v>
+      </c>
+      <c r="B1109" t="s" s="2">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s" s="2">
+        <v>2245</v>
+      </c>
+      <c r="B1110" t="s" s="2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s" s="2">
+        <v>2247</v>
+      </c>
+      <c r="B1111" t="s" s="2">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s" s="2">
+        <v>2249</v>
+      </c>
+      <c r="B1112" t="s" s="2">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s" s="2">
+        <v>2251</v>
+      </c>
+      <c r="B1113" t="s" s="2">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s" s="2">
+        <v>2253</v>
+      </c>
+      <c r="B1114" t="s" s="2">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s" s="2">
+        <v>2255</v>
+      </c>
+      <c r="B1115" t="s" s="2">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s" s="2">
+        <v>2257</v>
+      </c>
+      <c r="B1116" t="s" s="2">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s" s="2">
+        <v>2259</v>
+      </c>
+      <c r="B1117" t="s" s="2">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s" s="2">
+        <v>2261</v>
+      </c>
+      <c r="B1118" t="s" s="2">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s" s="2">
+        <v>2263</v>
+      </c>
+      <c r="B1119" t="s" s="2">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s" s="2">
+        <v>2265</v>
+      </c>
+      <c r="B1120" t="s" s="2">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s" s="2">
+        <v>2267</v>
+      </c>
+      <c r="B1121" t="s" s="2">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s" s="2">
+        <v>2269</v>
+      </c>
+      <c r="B1122" t="s" s="2">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s" s="2">
+        <v>2271</v>
+      </c>
+      <c r="B1123" t="s" s="2">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s" s="2">
+        <v>2273</v>
+      </c>
+      <c r="B1124" t="s" s="2">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B1125" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s" s="2">
+        <v>2275</v>
+      </c>
+      <c r="B1126" t="s" s="2">
+        <v>2276</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="2283">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6838,6 +6838,24 @@
   </si>
   <si>
     <t>Pressothérapie</t>
+  </si>
+  <si>
+    <t>1461</t>
+  </si>
+  <si>
+    <t>Diagnostic par télé-AVC</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de territoire</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de recours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -7114,7 +7132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1126"/>
+  <dimension ref="A1:B1129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16118,18 +16136,42 @@
     </row>
     <row r="1125">
       <c r="A1125" t="s" s="2">
-        <v>21</v>
+        <v>2275</v>
       </c>
       <c r="B1125" t="s" s="2">
-        <v>21</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="s" s="2">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B1126" t="s" s="2">
-        <v>2276</v>
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s" s="2">
+        <v>2279</v>
+      </c>
+      <c r="B1127" t="s" s="2">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B1128" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s" s="2">
+        <v>2281</v>
+      </c>
+      <c r="B1129" t="s" s="2">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R210-ActeSpe" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="2303">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -567,7 +567,7 @@
     <t>0130</t>
   </si>
   <si>
-    <t>Cinétique lactique d'effort</t>
+    <t>Cinétique biologique au cours et décours de l'effort</t>
   </si>
   <si>
     <t>0133</t>
@@ -1071,7 +1071,7 @@
     <t>0272</t>
   </si>
   <si>
-    <t>Kinésithérapie-thermothérapie</t>
+    <t>Physiothérapie (Kinésithérapie-thermothérapie)</t>
   </si>
   <si>
     <t>0273</t>
@@ -1395,7 +1395,7 @@
     <t>0403</t>
   </si>
   <si>
-    <t>Psychologie du sportif</t>
+    <t>Psychopathologie du sportif</t>
   </si>
   <si>
     <t>0404</t>
@@ -1428,12 +1428,6 @@
     <t>Rééducation orthoptique</t>
   </si>
   <si>
-    <t>0414</t>
-  </si>
-  <si>
-    <t>Réhabilitation respiratoire</t>
-  </si>
-  <si>
     <t>0415</t>
   </si>
   <si>
@@ -2781,7 +2775,7 @@
     <t>0729</t>
   </si>
   <si>
-    <t>Mesure du volume vésicale par échographie (Bladder-scan)</t>
+    <t>Mesure du volume vésical par échographe portable (Bladder-scan)</t>
   </si>
   <si>
     <t>0730</t>
@@ -2871,7 +2865,7 @@
     <t>0745</t>
   </si>
   <si>
-    <t>Rééducation et réadaptation des séquelles de brûlures</t>
+    <t>Réadaptation des séquelles de brûlures</t>
   </si>
   <si>
     <t>0746</t>
@@ -3009,7 +3003,7 @@
     <t>0770</t>
   </si>
   <si>
-    <t>Sport adapté en compétition et handisport en compétition</t>
+    <t>Parasport en compétition</t>
   </si>
   <si>
     <t>0771</t>
@@ -3129,13 +3123,13 @@
     <t>0793</t>
   </si>
   <si>
-    <t>Activité professionnelle - Activités de services</t>
+    <t>Activité professionnelle - Activités de services (blanchisserie, nettoyage, restauration, etc.)</t>
   </si>
   <si>
     <t>0794</t>
   </si>
   <si>
-    <t>Activité professionnelle - Activités « vertes »</t>
+    <t>Activité professionnelle - Activités « vertes » (espaces verts, agriculture, activités bois)</t>
   </si>
   <si>
     <t>0795</t>
@@ -3153,7 +3147,7 @@
     <t>0797</t>
   </si>
   <si>
-    <t>Enseignement, Formation- Bâtiment, travaux publics et Electricité</t>
+    <t>Enseignement, Formation - Bâtiment, travaux publics et Electricité</t>
   </si>
   <si>
     <t>0798</t>
@@ -3177,7 +3171,7 @@
     <t>0801</t>
   </si>
   <si>
-    <t>Enseignement, Formation - Hôtellerie, Restauration et Tourisme</t>
+    <t>Enseignement, Formation - Hôtellerie, Restauration et Tourisme (dont Charcuterie traiteur, Cuisine, Pâtisserie)</t>
   </si>
   <si>
     <t>0802</t>
@@ -3909,13 +3903,13 @@
     <t>0965</t>
   </si>
   <si>
-    <t>Rééducation du cancer du sein</t>
+    <t>Réadaptation du cancer du sein</t>
   </si>
   <si>
     <t>0966</t>
   </si>
   <si>
-    <t>Rééducation des cicatrices</t>
+    <t>Réadaptation des cicatrices</t>
   </si>
   <si>
     <t>0967</t>
@@ -3927,19 +3921,19 @@
     <t>0968</t>
   </si>
   <si>
-    <t>Rééducation de la main</t>
+    <t>Réadaptation de la main</t>
   </si>
   <si>
     <t>0969</t>
   </si>
   <si>
-    <t>Rééducation précoce suite d'AVC</t>
+    <t>Réadaptation précoce suite d'AVC</t>
   </si>
   <si>
     <t>0970</t>
   </si>
   <si>
-    <t>Prise en charge de la Broncho pneumopathie Chronique Obstructive (BPCO)</t>
+    <t>Prise en charge des affections respiratoires chroniques</t>
   </si>
   <si>
     <t>0971</t>
@@ -3951,7 +3945,7 @@
     <t>0972</t>
   </si>
   <si>
-    <t>Rééducation maxillo-faciale</t>
+    <t>Réadaptation maxillo-faciale</t>
   </si>
   <si>
     <t>0973</t>
@@ -3963,7 +3957,7 @@
     <t>0974</t>
   </si>
   <si>
-    <t>Rééducation de la Mucoviscidose</t>
+    <t>Réadaptation de la Mucoviscidose</t>
   </si>
   <si>
     <t>0975</t>
@@ -3981,13 +3975,13 @@
     <t>0977</t>
   </si>
   <si>
-    <t>Prise en charge de la lombalgie (accès direct)</t>
+    <t>Prise en charge de la lombalgie (protocole de coopération)</t>
   </si>
   <si>
     <t>0978</t>
   </si>
   <si>
-    <t>Prise en charge de l'entorse de la cheville (accès direct)</t>
+    <t>Prise en charge de l'entorse de la cheville (protocole de coopération)</t>
   </si>
   <si>
     <t>0979</t>
@@ -4107,7 +4101,7 @@
     <t>0998</t>
   </si>
   <si>
-    <t>Test de provocation orale à certains médicaments ou aliments sans gravité</t>
+    <t>Tests de provocation orale à certains médicaments ou aliments, en l'absence de signe de gravité</t>
   </si>
   <si>
     <t>0999</t>
@@ -4263,7 +4257,7 @@
     <t>1024</t>
   </si>
   <si>
-    <t>Mesure des Pressions de loges musculaires des membres inférieurs et supérieurs</t>
+    <t>Mesure des Pressions de loges musculaires des membres inférieurs ou supérieurs</t>
   </si>
   <si>
     <t>1025</t>
@@ -6714,48 +6708,6 @@
     <t>Prise en charge infirmière de récupération améliorée après chirurgie (RAAC)</t>
   </si>
   <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des douleurs chroniques</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des maladies psychiatriques</t>
-  </si>
-  <si>
-    <t>1441</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des pathologies cardiaques</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des pathologies respiratoires</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des soins palliatifs</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière des troubles vésico-sphinctériens (TVS)</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>Prise en charge infirmière du diabète</t>
-  </si>
-  <si>
     <t>1446</t>
   </si>
   <si>
@@ -6783,7 +6735,7 @@
     <t>1451</t>
   </si>
   <si>
-    <t>Accompagnement à la transition, au changement d'environnement, au deuil</t>
+    <t>Accompagnement infirmier au changement (état de santé, étapes de vie, environnement, deuil)</t>
   </si>
   <si>
     <t>1452</t>
@@ -6801,7 +6753,7 @@
     <t>1454</t>
   </si>
   <si>
-    <t>Evaluation et suivi standardisé des commotions cérébrales</t>
+    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales</t>
   </si>
   <si>
     <t>1455</t>
@@ -6856,6 +6808,114 @@
   </si>
   <si>
     <t>Unité neuro-vasculaire (UNV) de recours</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>Certificats médicaux pour le sport de haut niveau (SHN)</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>Certificats spécifiques pour les sportifs en situation de Handicap</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>Dépistage et prise en charge du dopage</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>Examen visuel du sportif</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>Exploration clinique et fonctionnelle des intolérances d'effort</t>
+  </si>
+  <si>
+    <t>1469</t>
+  </si>
+  <si>
+    <t>Exploration des anaphylaxies d'exercice</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>Mesure de la composition corporelle par DEXA</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>Test de provocation à l'asthme d'effort</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>Soins et surveillance des cathéters centraux par insertion périphérique (picc-line)</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>Soins et surveillance des cathéters périnerveux</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>Analyse tridimensionnelle du mouvement, de la marche</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>Accès direct Infirmier en Pratique Avancée (IPA), kinésithérapeute, orthophoniste</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>Prise en charge de la bronchiolite du nourrisson</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>Réadaptation des migraines et céphalées</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>Réadaptation abdominale du post partum</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>Réadaptation abdominale préopératoire et post opératoire</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>Diathermie et électrothérapie combinées</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>Cryothérapie compressive</t>
   </si>
   <si>
     <t>System URI</t>
@@ -7132,7 +7192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1129"/>
+  <dimension ref="A1:B1139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16160,18 +16220,98 @@
     </row>
     <row r="1128">
       <c r="A1128" t="s" s="2">
-        <v>21</v>
+        <v>2281</v>
       </c>
       <c r="B1128" t="s" s="2">
-        <v>21</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="s" s="2">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="B1129" t="s" s="2">
-        <v>2282</v>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="s" s="2">
+        <v>2285</v>
+      </c>
+      <c r="B1130" t="s" s="2">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="s" s="2">
+        <v>2287</v>
+      </c>
+      <c r="B1131" t="s" s="2">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="s" s="2">
+        <v>2289</v>
+      </c>
+      <c r="B1132" t="s" s="2">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="s" s="2">
+        <v>2291</v>
+      </c>
+      <c r="B1133" t="s" s="2">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="s" s="2">
+        <v>2293</v>
+      </c>
+      <c r="B1134" t="s" s="2">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="s" s="2">
+        <v>2295</v>
+      </c>
+      <c r="B1135" t="s" s="2">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="s" s="2">
+        <v>2297</v>
+      </c>
+      <c r="B1136" t="s" s="2">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="s" s="2">
+        <v>2299</v>
+      </c>
+      <c r="B1137" t="s" s="2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B1138" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="s" s="2">
+        <v>2301</v>
+      </c>
+      <c r="B1139" t="s" s="2">
+        <v>2302</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="2303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="2305">
   <si>
     <t>Property</t>
   </si>
@@ -6759,13 +6759,13 @@
     <t>1455</t>
   </si>
   <si>
-    <t>Surveillance et administration de traitement hémophilique</t>
+    <t>Soins et surveillance d'administration de traitement hémophilique</t>
   </si>
   <si>
     <t>1456</t>
   </si>
   <si>
-    <t>Surveillance infirmière et remplissage de pompe à morphine</t>
+    <t>Soins et surveillance de remplissage de pompe à morphine</t>
   </si>
   <si>
     <t>1457</t>
@@ -6868,6 +6868,12 @@
   </si>
   <si>
     <t>Soins et surveillance des cathéters périnerveux</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>Télésoin</t>
   </si>
   <si>
     <t>1475</t>
@@ -7192,7 +7198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1139"/>
+  <dimension ref="A1:B1140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16300,18 +16306,26 @@
     </row>
     <row r="1138">
       <c r="A1138" t="s" s="2">
-        <v>21</v>
+        <v>2301</v>
       </c>
       <c r="B1138" t="s" s="2">
-        <v>21</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="s" s="2">
-        <v>2301</v>
+        <v>21</v>
       </c>
       <c r="B1139" t="s" s="2">
-        <v>2302</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="s" s="2">
+        <v>2303</v>
+      </c>
+      <c r="B1140" t="s" s="2">
+        <v>2304</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -624,12 +624,6 @@
     <t>Test de marche 6 minutes</t>
   </si>
   <si>
-    <t>0149</t>
-  </si>
-  <si>
-    <t>Cystographie pédiatrique</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
@@ -2661,7 +2655,7 @@
     <t>0709</t>
   </si>
   <si>
-    <t>Entéro-IRM</t>
+    <t>Colo-IRM et entéro-IRM</t>
   </si>
   <si>
     <t>0710</t>
@@ -4821,7 +4815,7 @@
     <t>1119</t>
   </si>
   <si>
-    <t>Chirurgie du défilé cervico-thoracique</t>
+    <t>Chirurgie du défilé cervico thoraco brachial</t>
   </si>
   <si>
     <t>1120</t>
@@ -5013,7 +5007,7 @@
     <t>1151</t>
   </si>
   <si>
-    <t>Chirurgie oncologique de l'oesophage ou de la jonction gastro-oesophagienne</t>
+    <t>Chirurgie carcinologique de l'oesophage ou de la jonction gastro-oesophagienne</t>
   </si>
   <si>
     <t>1152</t>
@@ -5100,12 +5094,6 @@
     <t>Chirurgie proctologique</t>
   </si>
   <si>
-    <t>1166</t>
-  </si>
-  <si>
-    <t>Colo-IRM et entéro-IRM</t>
-  </si>
-  <si>
     <t>1167</t>
   </si>
   <si>
@@ -5208,12 +5196,6 @@
     <t>Drainage organes profonds abdominaux</t>
   </si>
   <si>
-    <t>1184</t>
-  </si>
-  <si>
-    <t>Echodoppler artériel / veineux</t>
-  </si>
-  <si>
     <t>1185</t>
   </si>
   <si>
@@ -5775,7 +5757,7 @@
     <t>1279</t>
   </si>
   <si>
-    <t>Télésurveillance des prothèses rythmiques</t>
+    <t>Télésurveillance médicale de l'arythmie cardiaque</t>
   </si>
   <si>
     <t>1280</t>
@@ -6534,24 +6516,12 @@
     <t>Centre labellisé Covid-Long</t>
   </si>
   <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>Chirurgie carcinologique de l'oesophage</t>
-  </si>
-  <si>
     <t>1411</t>
   </si>
   <si>
     <t>Chirurgie des déformations thoraciques (pectum excavatum)</t>
   </si>
   <si>
-    <t>1412</t>
-  </si>
-  <si>
-    <t>Chirurgie du syndrome du défilé thoraco brachial</t>
-  </si>
-  <si>
     <t>1413</t>
   </si>
   <si>
@@ -6813,13 +6783,13 @@
     <t>1464</t>
   </si>
   <si>
-    <t>Certificats médicaux pour le sport de haut niveau (SHN)</t>
+    <t>Délivrance de certificats médicaux pour le sport de haut niveau (SHN)</t>
   </si>
   <si>
     <t>1465</t>
   </si>
   <si>
-    <t>Certificats spécifiques pour les sportifs en situation de Handicap</t>
+    <t>Délivrance de certificats spécifiques pour les sportifs en situation de Handicap</t>
   </si>
   <si>
     <t>1466</t>
@@ -6922,6 +6892,36 @@
   </si>
   <si>
     <t>Cryothérapie compressive</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance rénale</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance respiratoire</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale du diabète</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale en oncologie</t>
   </si>
   <si>
     <t>System URI</t>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="2315">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1866,12 +1866,6 @@
     <t>Bypass gastrique</t>
   </si>
   <si>
-    <t>0535</t>
-  </si>
-  <si>
-    <t>Prise en charge de l'obésité modérée</t>
-  </si>
-  <si>
     <t>0536</t>
   </si>
   <si>
@@ -2856,12 +2850,6 @@
     <t>Actions de prévention tertiaire (pour éviter l'aggravation ou la chronicisation d'un problème de santé)</t>
   </si>
   <si>
-    <t>0745</t>
-  </si>
-  <si>
-    <t>Réadaptation des séquelles de brûlures</t>
-  </si>
-  <si>
     <t>0746</t>
   </si>
   <si>
@@ -4740,12 +4728,6 @@
     <t>Réadaptation des affections malformatives du système musculo-squelettique</t>
   </si>
   <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>Réadaptation des affections médullaires</t>
-  </si>
-  <si>
     <t>1107</t>
   </si>
   <si>
@@ -6723,7 +6705,7 @@
     <t>1454</t>
   </si>
   <si>
-    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales</t>
+    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales (Traumatisme Crânien Léger - TCL)</t>
   </si>
   <si>
     <t>1455</t>
@@ -6735,7 +6717,7 @@
     <t>1456</t>
   </si>
   <si>
-    <t>Soins et surveillance de remplissage de pompe à morphine</t>
+    <t>Soins et surveillance de remplissage de pompe à antalgique (dont morphine)</t>
   </si>
   <si>
     <t>1457</t>
@@ -6922,6 +6904,54 @@
   </si>
   <si>
     <t>Télésurveillance médicale en oncologie</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>Electrostimulation fonctionnelle urologique</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 1 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 2 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 (Centre Spécialisé Obésité)</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>Consultation dans des locaux dédiés - personnes en situation de handicap (PH)</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>Consultation sans locaux dédiés - personnes en situation de handicap (PH)</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>HandiBloc</t>
   </si>
   <si>
     <t>System URI</t>
@@ -7198,7 +7228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1140"/>
+  <dimension ref="A1:B1145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16314,18 +16344,58 @@
     </row>
     <row r="1139">
       <c r="A1139" t="s" s="2">
-        <v>21</v>
+        <v>2303</v>
       </c>
       <c r="B1139" t="s" s="2">
-        <v>21</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="s" s="2">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="B1140" t="s" s="2">
-        <v>2304</v>
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s" s="2">
+        <v>2307</v>
+      </c>
+      <c r="B1141" t="s" s="2">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s" s="2">
+        <v>2309</v>
+      </c>
+      <c r="B1142" t="s" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s" s="2">
+        <v>2311</v>
+      </c>
+      <c r="B1143" t="s" s="2">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B1144" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s" s="2">
+        <v>2313</v>
+      </c>
+      <c r="B1145" t="s" s="2">
+        <v>2314</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
